--- a/2015IntroDB/project3/Part1 Spreadsheet.xlsx
+++ b/2015IntroDB/project3/Part1 Spreadsheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>ClientInfo</t>
   </si>
@@ -107,31 +107,7 @@
     <t>PhotoShootLength</t>
   </si>
   <si>
-    <t>TotalTimeofShoots</t>
-  </si>
-  <si>
-    <t>Joint</t>
-  </si>
-  <si>
-    <t>photo,location</t>
-  </si>
-  <si>
-    <t>permitObtained</t>
-  </si>
-  <si>
-    <t>What Else Goes into this calculation?</t>
-  </si>
-  <si>
-    <t>calcualted Fields</t>
-  </si>
-  <si>
-    <t>contract,photo</t>
-  </si>
-  <si>
-    <t>totalTimeofShoots</t>
-  </si>
-  <si>
-    <t>contract,photo,?</t>
+    <t>PermitObtained</t>
   </si>
 </sst>
 </file>
@@ -173,10 +149,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,94 +502,54 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2"/>
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>35</v>
+      <c r="A11" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F11" t="s">
         <v>25</v>
       </c>
     </row>
